--- a/CodeVS/data/output/barge_schedule.xlsx
+++ b/CodeVS/data/output/barge_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="79">
   <si>
     <t>load</t>
   </si>
@@ -136,36 +136,36 @@
     <t>b20</t>
   </si>
   <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>b10</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>b15</t>
+  </si>
+  <si>
+    <t>b16</t>
+  </si>
+  <si>
     <t>b37</t>
   </si>
   <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
-    <t>b10</t>
-  </si>
-  <si>
-    <t>b11</t>
-  </si>
-  <si>
-    <t>b12</t>
-  </si>
-  <si>
-    <t>b13</t>
-  </si>
-  <si>
-    <t>b14</t>
-  </si>
-  <si>
-    <t>b15</t>
-  </si>
-  <si>
-    <t>b16</t>
-  </si>
-  <si>
     <t>b38</t>
   </si>
   <si>
@@ -196,15 +196,6 @@
     <t>b33</t>
   </si>
   <si>
-    <t>b34</t>
-  </si>
-  <si>
-    <t>b35</t>
-  </si>
-  <si>
-    <t>b36</t>
-  </si>
-  <si>
     <t>o1</t>
   </si>
   <si>
@@ -241,16 +232,10 @@
     <t>tbr10</t>
   </si>
   <si>
-    <t>tbr11</t>
-  </si>
-  <si>
-    <t>tbr12</t>
+    <t>tbr6</t>
   </si>
   <si>
     <t>tbr7</t>
-  </si>
-  <si>
-    <t>tbr6</t>
   </si>
   <si>
     <t>tbs4</t>
@@ -679,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>2500</v>
@@ -702,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>3000</v>
@@ -725,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>2500</v>
@@ -748,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>3000</v>
@@ -771,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>2500</v>
@@ -794,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>3000</v>
@@ -817,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>2500</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -843,16 +828,16 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>2500</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -872,16 +857,16 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>3000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -901,16 +886,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>2500</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -930,16 +915,16 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>3000</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -959,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G13">
         <v>2500</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -988,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>3000</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1017,16 +1002,16 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>2500</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1046,16 +1031,16 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>3000</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1075,16 +1060,16 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G17">
         <v>2500</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1104,16 +1089,16 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>3000</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1133,16 +1118,16 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G19">
         <v>2500</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1162,16 +1147,16 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20">
         <v>3000</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1188,13 +1173,13 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>2500</v>
+      </c>
+      <c r="H21" t="s">
         <v>64</v>
-      </c>
-      <c r="G21">
-        <v>2500</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1211,13 +1196,13 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22">
+        <v>3000</v>
+      </c>
+      <c r="H22" t="s">
         <v>64</v>
-      </c>
-      <c r="G22">
-        <v>3000</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1234,13 +1219,13 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>2500</v>
+      </c>
+      <c r="H23" t="s">
         <v>64</v>
-      </c>
-      <c r="G23">
-        <v>2500</v>
-      </c>
-      <c r="H23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1257,16 +1242,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3000</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1283,16 +1268,16 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2500</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1309,25 +1294,22 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>3000</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
         <v>2500</v>
       </c>
-      <c r="B27">
-        <v>5.240947496916935</v>
-      </c>
       <c r="C27" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1335,24 +1317,24 @@
         <v>45674.75</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G27">
         <v>2500</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B28">
         <v>5.240947496916935</v>
@@ -1364,24 +1346,24 @@
         <v>45674.75</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G28">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B29">
         <v>5.240947496916935</v>
@@ -1393,24 +1375,24 @@
         <v>45674.75</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G29">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B30">
         <v>5.240947496916935</v>
@@ -1422,24 +1404,24 @@
         <v>45674.75</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G30">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B31">
         <v>5.240947496916935</v>
@@ -1451,24 +1433,24 @@
         <v>45674.75</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G31">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B32">
         <v>5.240947496916935</v>
@@ -1480,24 +1462,24 @@
         <v>45674.75</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B33">
         <v>5.240947496916935</v>
@@ -1509,24 +1491,24 @@
         <v>45674.75</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B34">
         <v>5.240947496916935</v>
@@ -1538,27 +1520,27 @@
         <v>45674.75</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G34">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B35">
-        <v>58.50967431997262</v>
+        <v>5.240947496916935</v>
       </c>
       <c r="C35" s="2">
         <v>45671.33333333334</v>
@@ -1567,24 +1549,24 @@
         <v>45674.75</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B36">
         <v>58.50967431997262</v>
@@ -1596,24 +1578,24 @@
         <v>45674.75</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G36">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B37">
         <v>58.50967431997262</v>
@@ -1625,24 +1607,24 @@
         <v>45674.75</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G37">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B38">
         <v>58.50967431997262</v>
@@ -1654,24 +1636,24 @@
         <v>45674.75</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G38">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B39">
         <v>58.50967431997262</v>
@@ -1683,19 +1665,19 @@
         <v>45674.75</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G39">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s">
         <v>76</v>
-      </c>
-      <c r="I39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1712,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>2500</v>
@@ -1732,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3000</v>
@@ -1752,7 +1734,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>2500</v>
@@ -1760,7 +1742,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C43" s="2">
         <v>45675.33333333334</v>
@@ -1769,21 +1751,18 @@
         <v>45681.75</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G43">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>3000</v>
-      </c>
-      <c r="B44">
-        <v>5.240876641161994</v>
+        <v>2500</v>
       </c>
       <c r="C44" s="2">
         <v>45675.33333333334</v>
@@ -1792,21 +1771,18 @@
         <v>45681.75</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G44">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>2500</v>
-      </c>
-      <c r="B45">
-        <v>5.240876641161994</v>
+        <v>3000</v>
       </c>
       <c r="C45" s="2">
         <v>45675.33333333334</v>
@@ -1815,21 +1791,18 @@
         <v>45681.75</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G45">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>3000</v>
-      </c>
-      <c r="B46">
-        <v>5.240876641161994</v>
+        <v>2500</v>
       </c>
       <c r="C46" s="2">
         <v>45675.33333333334</v>
@@ -1838,21 +1811,21 @@
         <v>45681.75</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G46">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B47">
-        <v>61.49903390174795</v>
+        <v>5.240876641161994</v>
       </c>
       <c r="C47" s="2">
         <v>45675.33333333334</v>
@@ -1861,21 +1834,21 @@
         <v>45681.75</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B48">
-        <v>61.49903390174795</v>
+        <v>5.240876641161994</v>
       </c>
       <c r="C48" s="2">
         <v>45675.33333333334</v>
@@ -1884,21 +1857,21 @@
         <v>45681.75</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G48">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B49">
-        <v>61.49903390174795</v>
+        <v>5.240876641161994</v>
       </c>
       <c r="C49" s="2">
         <v>45675.33333333334</v>
@@ -1907,18 +1880,18 @@
         <v>45681.75</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G49">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B50">
         <v>61.49903390174795</v>
@@ -1930,18 +1903,18 @@
         <v>45681.75</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G50">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B51">
         <v>61.49903390174795</v>
@@ -1953,18 +1926,18 @@
         <v>45681.75</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G51">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B52">
         <v>61.49903390174795</v>
@@ -1976,18 +1949,21 @@
         <v>45681.75</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G52">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B53">
+        <v>61.49903390174795</v>
       </c>
       <c r="C53" s="2">
         <v>45675.33333333334</v>
@@ -1996,18 +1972,21 @@
         <v>45681.75</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G53">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="B54">
+        <v>61.49903390174795</v>
       </c>
       <c r="C54" s="2">
         <v>45675.33333333334</v>
@@ -2016,18 +1995,21 @@
         <v>45681.75</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G54">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B55">
+        <v>61.49903390174795</v>
       </c>
       <c r="C55" s="2">
         <v>45675.33333333334</v>
@@ -2036,18 +2018,18 @@
         <v>45681.75</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G55">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C56" s="2">
         <v>45675.33333333334</v>
@@ -2056,18 +2038,18 @@
         <v>45681.75</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G56">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C57" s="2">
         <v>45675.33333333334</v>
@@ -2076,18 +2058,18 @@
         <v>45681.75</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G57">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C58" s="2">
         <v>45675.33333333334</v>
@@ -2096,21 +2078,24 @@
         <v>45681.75</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G58">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="I58" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C59" s="2">
         <v>45675.33333333334</v>
@@ -2119,24 +2104,24 @@
         <v>45681.75</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G59">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C60" s="2">
         <v>45675.33333333334</v>
@@ -2145,24 +2130,24 @@
         <v>45681.75</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G60">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C61" s="2">
         <v>45675.33333333334</v>
@@ -2171,24 +2156,24 @@
         <v>45681.75</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G61">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C62" s="2">
         <v>45675.33333333334</v>
@@ -2197,28 +2182,25 @@
         <v>45681.75</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G62">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I62" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
         <v>3000</v>
       </c>
-      <c r="B63">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C63" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2226,28 +2208,25 @@
         <v>45681.75</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G63">
         <v>3000</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
         <v>2500</v>
       </c>
-      <c r="B64">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C64" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2255,28 +2234,25 @@
         <v>45681.75</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G64">
         <v>2500</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
         <v>3000</v>
       </c>
-      <c r="B65">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C65" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2284,19 +2260,19 @@
         <v>45681.75</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G65">
         <v>3000</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2313,19 +2289,19 @@
         <v>45681.75</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G66">
         <v>2500</v>
       </c>
       <c r="H66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I66" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2342,19 +2318,19 @@
         <v>45681.75</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67">
+        <v>3000</v>
+      </c>
+      <c r="H67" t="s">
         <v>65</v>
       </c>
-      <c r="G67">
-        <v>3000</v>
-      </c>
-      <c r="H67" t="s">
-        <v>67</v>
-      </c>
       <c r="I67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2371,19 +2347,19 @@
         <v>45681.75</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68">
+        <v>2500</v>
+      </c>
+      <c r="H68" t="s">
         <v>65</v>
       </c>
-      <c r="G68">
-        <v>2500</v>
-      </c>
-      <c r="H68" t="s">
-        <v>68</v>
-      </c>
       <c r="I68" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2400,19 +2376,19 @@
         <v>45681.75</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69">
+        <v>3000</v>
+      </c>
+      <c r="H69" t="s">
         <v>65</v>
       </c>
-      <c r="G69">
-        <v>3000</v>
-      </c>
-      <c r="H69" t="s">
-        <v>68</v>
-      </c>
       <c r="I69" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2420,7 +2396,7 @@
         <v>2500</v>
       </c>
       <c r="B70">
-        <v>61.49903390174795</v>
+        <v>58.50957706380158</v>
       </c>
       <c r="C70" s="2">
         <v>45675.33333333334</v>
@@ -2429,19 +2405,19 @@
         <v>45681.75</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G70">
         <v>2500</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I70" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2449,7 +2425,7 @@
         <v>3000</v>
       </c>
       <c r="B71">
-        <v>61.49903390174795</v>
+        <v>58.50957706380158</v>
       </c>
       <c r="C71" s="2">
         <v>45675.33333333334</v>
@@ -2458,19 +2434,19 @@
         <v>45681.75</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G71">
         <v>3000</v>
       </c>
       <c r="H71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2478,7 +2454,7 @@
         <v>2500</v>
       </c>
       <c r="B72">
-        <v>61.49903390174795</v>
+        <v>58.50957706380158</v>
       </c>
       <c r="C72" s="2">
         <v>45675.33333333334</v>
@@ -2487,19 +2463,19 @@
         <v>45681.75</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G72">
         <v>2500</v>
       </c>
       <c r="H72" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I72" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2507,7 +2483,7 @@
         <v>3000</v>
       </c>
       <c r="B73">
-        <v>61.49903390174795</v>
+        <v>58.50957706380158</v>
       </c>
       <c r="C73" s="2">
         <v>45675.33333333334</v>
@@ -2516,19 +2492,19 @@
         <v>45681.75</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G73">
         <v>3000</v>
       </c>
       <c r="H73" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2545,19 +2521,19 @@
         <v>45681.75</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G74">
         <v>2500</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2574,25 +2550,28 @@
         <v>45681.75</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G75">
         <v>3000</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
         <v>1000</v>
       </c>
+      <c r="B76">
+        <v>61.49903390174795</v>
+      </c>
       <c r="C76" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2600,19 +2579,19 @@
         <v>45681.75</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G76">
         <v>2500</v>
       </c>
       <c r="H76" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2629,16 +2608,16 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G77">
         <v>2500</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2655,16 +2634,16 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G78">
         <v>3000</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I78" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2681,16 +2660,16 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G79">
         <v>2500</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I79" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2707,16 +2686,16 @@
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G80">
         <v>3000</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2733,16 +2712,16 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G81">
         <v>2500</v>
       </c>
       <c r="H81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I81" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2759,16 +2738,16 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G82">
         <v>3000</v>
       </c>
       <c r="H82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I82" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2785,16 +2764,16 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G83">
         <v>2500</v>
       </c>
       <c r="H83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I83" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2808,19 +2787,19 @@
         <v>45683.75</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G84">
         <v>3000</v>
       </c>
       <c r="H84" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I84" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CodeVS/data/output/barge_schedule.xlsx
+++ b/CodeVS/data/output/barge_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="81">
   <si>
     <t>load</t>
   </si>
@@ -196,6 +196,9 @@
     <t>b33</t>
   </si>
   <si>
+    <t>b34</t>
+  </si>
+  <si>
     <t>o1</t>
   </si>
   <si>
@@ -232,10 +235,13 @@
     <t>tbr10</t>
   </si>
   <si>
+    <t>tbr11</t>
+  </si>
+  <si>
+    <t>tbr12</t>
+  </si>
+  <si>
     <t>tbr6</t>
-  </si>
-  <si>
-    <t>tbr7</t>
   </si>
   <si>
     <t>tbs4</t>
@@ -664,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>2500</v>
@@ -687,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>3000</v>
@@ -710,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>2500</v>
@@ -733,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3000</v>
@@ -756,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>2500</v>
@@ -779,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>3000</v>
@@ -802,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>2500</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -828,16 +834,16 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>2500</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -857,16 +863,16 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3000</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -886,16 +892,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>2500</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -915,16 +921,16 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3000</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -944,16 +950,16 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>2500</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -973,16 +979,16 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3000</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1002,16 +1008,16 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>2500</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1031,16 +1037,16 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>3000</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1060,16 +1066,16 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2500</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1089,16 +1095,16 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18">
         <v>3000</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1118,16 +1124,16 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19">
         <v>2500</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1147,16 +1153,16 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <v>3000</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1173,13 +1179,13 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>2500</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1196,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>3000</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1219,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>2500</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1242,16 +1248,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3000</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1268,16 +1274,16 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25">
         <v>2500</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1294,16 +1300,16 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3000</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1320,16 +1326,16 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27">
         <v>2500</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1349,16 +1355,16 @@
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>2500</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1378,16 +1384,16 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3000</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1407,16 +1413,16 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>2500</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1436,16 +1442,16 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3000</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1465,16 +1471,16 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>2500</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1494,16 +1500,16 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33">
         <v>3000</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1523,16 +1529,16 @@
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>2500</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1552,16 +1558,16 @@
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>3000</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1581,16 +1587,16 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G36">
         <v>2500</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1610,16 +1616,16 @@
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>3000</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1639,16 +1645,16 @@
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G38">
         <v>2500</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1668,16 +1674,16 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>3000</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1694,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>2500</v>
@@ -1714,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>3000</v>
@@ -1734,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2500</v>
@@ -1754,7 +1760,7 @@
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G43">
         <v>3000</v>
@@ -1774,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>2500</v>
@@ -1794,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3000</v>
@@ -1802,7 +1808,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B46">
+        <v>5.240876641161994</v>
       </c>
       <c r="C46" s="2">
         <v>45675.33333333334</v>
@@ -1811,18 +1820,18 @@
         <v>45681.75</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G46">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B47">
         <v>5.240876641161994</v>
@@ -1834,18 +1843,18 @@
         <v>45681.75</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G47">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B48">
         <v>5.240876641161994</v>
@@ -1857,21 +1866,21 @@
         <v>45681.75</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G48">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B49">
-        <v>5.240876641161994</v>
+        <v>61.49903390174795</v>
       </c>
       <c r="C49" s="2">
         <v>45675.33333333334</v>
@@ -1880,18 +1889,18 @@
         <v>45681.75</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G49">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B50">
         <v>61.49903390174795</v>
@@ -1903,18 +1912,18 @@
         <v>45681.75</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G50">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B51">
         <v>61.49903390174795</v>
@@ -1926,18 +1935,18 @@
         <v>45681.75</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G51">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B52">
         <v>61.49903390174795</v>
@@ -1949,18 +1958,18 @@
         <v>45681.75</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G52">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B53">
         <v>61.49903390174795</v>
@@ -1972,18 +1981,18 @@
         <v>45681.75</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G53">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B54">
         <v>61.49903390174795</v>
@@ -1995,21 +2004,18 @@
         <v>45681.75</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G54">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>3000</v>
-      </c>
-      <c r="B55">
-        <v>61.49903390174795</v>
+        <v>2500</v>
       </c>
       <c r="C55" s="2">
         <v>45675.33333333334</v>
@@ -2018,18 +2024,18 @@
         <v>45681.75</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G55">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C56" s="2">
         <v>45675.33333333334</v>
@@ -2038,18 +2044,18 @@
         <v>45681.75</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G56">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C57" s="2">
         <v>45675.33333333334</v>
@@ -2058,18 +2064,18 @@
         <v>45681.75</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G57">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C58" s="2">
         <v>45675.33333333334</v>
@@ -2078,24 +2084,24 @@
         <v>45681.75</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G58">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C59" s="2">
         <v>45675.33333333334</v>
@@ -2104,24 +2110,24 @@
         <v>45681.75</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G59">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C60" s="2">
         <v>45675.33333333334</v>
@@ -2130,24 +2136,24 @@
         <v>45681.75</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G60">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C61" s="2">
         <v>45675.33333333334</v>
@@ -2156,24 +2162,24 @@
         <v>45681.75</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G61">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C62" s="2">
         <v>45675.33333333334</v>
@@ -2182,24 +2188,24 @@
         <v>45681.75</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G62">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C63" s="2">
         <v>45675.33333333334</v>
@@ -2208,24 +2214,24 @@
         <v>45681.75</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G63">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C64" s="2">
         <v>45675.33333333334</v>
@@ -2234,24 +2240,27 @@
         <v>45681.75</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G64">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="B65">
+        <v>58.50957706380158</v>
       </c>
       <c r="C65" s="2">
         <v>45675.33333333334</v>
@@ -2260,24 +2269,24 @@
         <v>45681.75</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G65">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B66">
         <v>58.50957706380158</v>
@@ -2289,24 +2298,24 @@
         <v>45681.75</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G66">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B67">
         <v>58.50957706380158</v>
@@ -2318,24 +2327,24 @@
         <v>45681.75</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G67">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B68">
         <v>58.50957706380158</v>
@@ -2347,24 +2356,24 @@
         <v>45681.75</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G68">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B69">
         <v>58.50957706380158</v>
@@ -2376,24 +2385,24 @@
         <v>45681.75</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G69">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B70">
         <v>58.50957706380158</v>
@@ -2405,24 +2414,24 @@
         <v>45681.75</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G70">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B71">
         <v>58.50957706380158</v>
@@ -2434,24 +2443,24 @@
         <v>45681.75</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G71">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B72">
         <v>58.50957706380158</v>
@@ -2463,27 +2472,27 @@
         <v>45681.75</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G72">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B73">
-        <v>58.50957706380158</v>
+        <v>61.49903390174795</v>
       </c>
       <c r="C73" s="2">
         <v>45675.33333333334</v>
@@ -2492,24 +2501,24 @@
         <v>45681.75</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G73">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B74">
         <v>61.49903390174795</v>
@@ -2521,24 +2530,24 @@
         <v>45681.75</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G74">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B75">
         <v>61.49903390174795</v>
@@ -2550,19 +2559,19 @@
         <v>45681.75</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G75">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2579,19 +2588,19 @@
         <v>45681.75</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G76">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2608,16 +2617,16 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G77">
         <v>2500</v>
       </c>
       <c r="H77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2634,16 +2643,16 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G78">
         <v>3000</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2660,16 +2669,16 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G79">
         <v>2500</v>
       </c>
       <c r="H79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2686,16 +2695,16 @@
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G80">
         <v>3000</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2712,16 +2721,16 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G81">
         <v>2500</v>
       </c>
       <c r="H81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I81" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2738,16 +2747,16 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G82">
         <v>3000</v>
       </c>
       <c r="H82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2764,16 +2773,16 @@
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G83">
         <v>2500</v>
       </c>
       <c r="H83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I83" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2790,16 +2799,16 @@
         <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84">
         <v>3000</v>
       </c>
       <c r="H84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I84" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/CodeVS/data/output/barge_schedule.xlsx
+++ b/CodeVS/data/output/barge_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="89">
   <si>
     <t>load</t>
   </si>
@@ -100,6 +100,30 @@
     <t>b42</t>
   </si>
   <si>
+    <t>b17</t>
+  </si>
+  <si>
+    <t>b18</t>
+  </si>
+  <si>
+    <t>b19</t>
+  </si>
+  <si>
+    <t>b20</t>
+  </si>
+  <si>
+    <t>b37</t>
+  </si>
+  <si>
+    <t>b38</t>
+  </si>
+  <si>
+    <t>b39</t>
+  </si>
+  <si>
+    <t>b40</t>
+  </si>
+  <si>
     <t>b43</t>
   </si>
   <si>
@@ -124,16 +148,13 @@
     <t>b50</t>
   </si>
   <si>
-    <t>b17</t>
-  </si>
-  <si>
-    <t>b18</t>
-  </si>
-  <si>
-    <t>b19</t>
-  </si>
-  <si>
-    <t>b20</t>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
   </si>
   <si>
     <t>b8</t>
@@ -145,15 +166,6 @@
     <t>b10</t>
   </si>
   <si>
-    <t>b11</t>
-  </si>
-  <si>
-    <t>b12</t>
-  </si>
-  <si>
-    <t>b13</t>
-  </si>
-  <si>
     <t>b14</t>
   </si>
   <si>
@@ -163,16 +175,40 @@
     <t>b16</t>
   </si>
   <si>
-    <t>b37</t>
-  </si>
-  <si>
-    <t>b38</t>
-  </si>
-  <si>
-    <t>b39</t>
-  </si>
-  <si>
-    <t>b40</t>
+    <t>b31</t>
+  </si>
+  <si>
+    <t>b32</t>
+  </si>
+  <si>
+    <t>b33</t>
+  </si>
+  <si>
+    <t>b34</t>
+  </si>
+  <si>
+    <t>b35</t>
+  </si>
+  <si>
+    <t>b36</t>
+  </si>
+  <si>
+    <t>b51</t>
+  </si>
+  <si>
+    <t>b52</t>
+  </si>
+  <si>
+    <t>b53</t>
+  </si>
+  <si>
+    <t>b54</t>
+  </si>
+  <si>
+    <t>b55</t>
+  </si>
+  <si>
+    <t>b56</t>
   </si>
   <si>
     <t>b57</t>
@@ -185,18 +221,6 @@
   </si>
   <si>
     <t>b60</t>
-  </si>
-  <si>
-    <t>b31</t>
-  </si>
-  <si>
-    <t>b32</t>
-  </si>
-  <si>
-    <t>b33</t>
-  </si>
-  <si>
-    <t>b34</t>
   </si>
   <si>
     <t>o1</t>
@@ -670,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>2500</v>
@@ -693,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>3000</v>
@@ -716,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>2500</v>
@@ -739,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>3000</v>
@@ -762,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>2500</v>
@@ -785,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>3000</v>
@@ -808,13 +832,13 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>2500</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -834,16 +858,16 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>2500</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -863,16 +887,16 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <v>3000</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -892,16 +916,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>2500</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -921,16 +945,16 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>3000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -950,16 +974,16 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G13">
         <v>2500</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -979,16 +1003,16 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G14">
         <v>3000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1008,16 +1032,16 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <v>2500</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1037,16 +1061,16 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G16">
         <v>3000</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1066,16 +1090,16 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>2500</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1095,16 +1119,16 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>3000</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1124,16 +1148,16 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G19">
         <v>2500</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1153,22 +1177,25 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>3000</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
         <v>2500</v>
       </c>
+      <c r="B21">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C21" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1176,22 +1203,25 @@
         <v>45674.75</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>2500</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
         <v>3000</v>
       </c>
+      <c r="B22">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C22" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1199,22 +1229,25 @@
         <v>45674.75</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G22">
         <v>3000</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
         <v>2500</v>
       </c>
+      <c r="B23">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C23" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1222,22 +1255,25 @@
         <v>45674.75</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>2500</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
         <v>3000</v>
       </c>
+      <c r="B24">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C24" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1245,25 +1281,28 @@
         <v>45674.75</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G24">
         <v>3000</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
         <v>2500</v>
       </c>
+      <c r="B25">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C25" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1271,25 +1310,28 @@
         <v>45674.75</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2500</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
         <v>3000</v>
       </c>
+      <c r="B26">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C26" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1297,25 +1339,28 @@
         <v>45674.75</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G26">
         <v>3000</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
         <v>2500</v>
       </c>
+      <c r="B27">
+        <v>58.50967431997262</v>
+      </c>
       <c r="C27" s="2">
         <v>45671.33333333334</v>
       </c>
@@ -1323,27 +1368,27 @@
         <v>45674.75</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G27">
         <v>2500</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B28">
-        <v>5.240947496916935</v>
+        <v>58.50967431997262</v>
       </c>
       <c r="C28" s="2">
         <v>45671.33333333334</v>
@@ -1352,24 +1397,24 @@
         <v>45674.75</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G28">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B29">
         <v>5.240947496916935</v>
@@ -1381,24 +1426,24 @@
         <v>45674.75</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G29">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B30">
         <v>5.240947496916935</v>
@@ -1410,24 +1455,24 @@
         <v>45674.75</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G30">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B31">
         <v>5.240947496916935</v>
@@ -1439,24 +1484,24 @@
         <v>45674.75</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B32">
         <v>5.240947496916935</v>
@@ -1468,24 +1513,24 @@
         <v>45674.75</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G32">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B33">
         <v>5.240947496916935</v>
@@ -1497,24 +1542,24 @@
         <v>45674.75</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G33">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B34">
         <v>5.240947496916935</v>
@@ -1526,24 +1571,24 @@
         <v>45674.75</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B35">
         <v>5.240947496916935</v>
@@ -1555,27 +1600,27 @@
         <v>45674.75</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G35">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B36">
-        <v>58.50967431997262</v>
+        <v>5.240947496916935</v>
       </c>
       <c r="C36" s="2">
         <v>45671.33333333334</v>
@@ -1584,27 +1629,27 @@
         <v>45674.75</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G36">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B37">
-        <v>58.50967431997262</v>
+        <v>61.49913779365878</v>
       </c>
       <c r="C37" s="2">
         <v>45671.33333333334</v>
@@ -1613,27 +1658,27 @@
         <v>45674.75</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G37">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B38">
-        <v>58.50967431997262</v>
+        <v>61.49913779365878</v>
       </c>
       <c r="C38" s="2">
         <v>45671.33333333334</v>
@@ -1642,27 +1687,27 @@
         <v>45674.75</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G38">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H38" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B39">
-        <v>58.50967431997262</v>
+        <v>61.49913779365878</v>
       </c>
       <c r="C39" s="2">
         <v>45671.33333333334</v>
@@ -1671,24 +1716,27 @@
         <v>45674.75</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G39">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B40">
+        <v>5.240876641161994</v>
       </c>
       <c r="C40" s="2">
         <v>45675.33333333334</v>
@@ -1697,18 +1745,21 @@
         <v>45681.75</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G40">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="B41">
+        <v>5.240876641161994</v>
       </c>
       <c r="C41" s="2">
         <v>45675.33333333334</v>
@@ -1717,18 +1768,21 @@
         <v>45681.75</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G41">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B42">
+        <v>5.240876641161994</v>
       </c>
       <c r="C42" s="2">
         <v>45675.33333333334</v>
@@ -1737,19 +1791,22 @@
         <v>45681.75</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G42">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
         <v>3000</v>
       </c>
+      <c r="B43">
+        <v>61.49903390174795</v>
+      </c>
       <c r="C43" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -1757,10 +1814,10 @@
         <v>45681.75</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G43">
         <v>3000</v>
@@ -1770,6 +1827,9 @@
       <c r="A44">
         <v>2500</v>
       </c>
+      <c r="B44">
+        <v>61.49903390174795</v>
+      </c>
       <c r="C44" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -1777,10 +1837,10 @@
         <v>45681.75</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G44">
         <v>2500</v>
@@ -1790,6 +1850,9 @@
       <c r="A45">
         <v>3000</v>
       </c>
+      <c r="B45">
+        <v>61.49903390174795</v>
+      </c>
       <c r="C45" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -1797,10 +1860,10 @@
         <v>45681.75</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G45">
         <v>3000</v>
@@ -1808,10 +1871,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B46">
-        <v>5.240876641161994</v>
+        <v>61.49903390174795</v>
       </c>
       <c r="C46" s="2">
         <v>45675.33333333334</v>
@@ -1820,21 +1883,21 @@
         <v>45681.75</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G46">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B47">
-        <v>5.240876641161994</v>
+        <v>61.49903390174795</v>
       </c>
       <c r="C47" s="2">
         <v>45675.33333333334</v>
@@ -1843,21 +1906,21 @@
         <v>45681.75</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G47">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B48">
-        <v>5.240876641161994</v>
+        <v>61.49903390174795</v>
       </c>
       <c r="C48" s="2">
         <v>45675.33333333334</v>
@@ -1866,18 +1929,18 @@
         <v>45681.75</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G48">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B49">
         <v>61.49903390174795</v>
@@ -1889,18 +1952,18 @@
         <v>45681.75</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G49">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B50">
         <v>61.49903390174795</v>
@@ -1912,18 +1975,18 @@
         <v>45681.75</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G50">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B51">
         <v>61.49903390174795</v>
@@ -1935,18 +1998,18 @@
         <v>45681.75</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G51">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B52">
         <v>61.49903390174795</v>
@@ -1958,18 +2021,18 @@
         <v>45681.75</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G52">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="B53">
         <v>61.49903390174795</v>
@@ -1981,18 +2044,18 @@
         <v>45681.75</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G53">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="B54">
         <v>61.49903390174795</v>
@@ -2004,18 +2067,21 @@
         <v>45681.75</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G54">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B55">
+        <v>61.49903390174795</v>
       </c>
       <c r="C55" s="2">
         <v>45675.33333333334</v>
@@ -2024,18 +2090,21 @@
         <v>45681.75</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G55">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="B56">
+        <v>61.49903390174795</v>
       </c>
       <c r="C56" s="2">
         <v>45675.33333333334</v>
@@ -2044,18 +2113,21 @@
         <v>45681.75</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G56">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B57">
+        <v>61.49903390174795</v>
       </c>
       <c r="C57" s="2">
         <v>45675.33333333334</v>
@@ -2064,18 +2136,21 @@
         <v>45681.75</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G57">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="B58">
+        <v>58.50957706380158</v>
       </c>
       <c r="C58" s="2">
         <v>45675.33333333334</v>
@@ -2084,24 +2159,27 @@
         <v>45681.75</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G58">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B59">
+        <v>58.50957706380158</v>
       </c>
       <c r="C59" s="2">
         <v>45675.33333333334</v>
@@ -2110,24 +2188,27 @@
         <v>45681.75</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G59">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="B60">
+        <v>58.50957706380158</v>
       </c>
       <c r="C60" s="2">
         <v>45675.33333333334</v>
@@ -2136,24 +2217,27 @@
         <v>45681.75</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G60">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>2500</v>
+        <v>3000</v>
+      </c>
+      <c r="B61">
+        <v>58.50957706380158</v>
       </c>
       <c r="C61" s="2">
         <v>45675.33333333334</v>
@@ -2162,24 +2246,24 @@
         <v>45681.75</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G61">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H61" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C62" s="2">
         <v>45675.33333333334</v>
@@ -2188,24 +2272,24 @@
         <v>45681.75</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G62">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C63" s="2">
         <v>45675.33333333334</v>
@@ -2214,24 +2298,24 @@
         <v>45681.75</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G63">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C64" s="2">
         <v>45675.33333333334</v>
@@ -2240,27 +2324,24 @@
         <v>45681.75</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G64">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H64" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>2500</v>
-      </c>
-      <c r="B65">
-        <v>58.50957706380158</v>
+        <v>3000</v>
       </c>
       <c r="C65" s="2">
         <v>45675.33333333334</v>
@@ -2269,27 +2350,24 @@
         <v>45681.75</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G65">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>3000</v>
-      </c>
-      <c r="B66">
-        <v>58.50957706380158</v>
+        <v>2500</v>
       </c>
       <c r="C66" s="2">
         <v>45675.33333333334</v>
@@ -2298,27 +2376,24 @@
         <v>45681.75</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G66">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H66" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>2500</v>
-      </c>
-      <c r="B67">
-        <v>58.50957706380158</v>
+        <v>3000</v>
       </c>
       <c r="C67" s="2">
         <v>45675.33333333334</v>
@@ -2327,27 +2402,24 @@
         <v>45681.75</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G67">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>3000</v>
-      </c>
-      <c r="B68">
-        <v>58.50957706380158</v>
+        <v>2500</v>
       </c>
       <c r="C68" s="2">
         <v>45675.33333333334</v>
@@ -2356,28 +2428,25 @@
         <v>45681.75</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G68">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H68" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
         <v>2500</v>
       </c>
-      <c r="B69">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C69" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2385,28 +2454,25 @@
         <v>45681.75</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G69">
         <v>2500</v>
       </c>
       <c r="H69" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I69" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
         <v>3000</v>
       </c>
-      <c r="B70">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C70" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2414,28 +2480,25 @@
         <v>45681.75</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G70">
         <v>3000</v>
       </c>
       <c r="H70" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
         <v>2500</v>
       </c>
-      <c r="B71">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C71" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2443,28 +2506,25 @@
         <v>45681.75</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G71">
         <v>2500</v>
       </c>
       <c r="H71" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
         <v>3000</v>
       </c>
-      <c r="B72">
-        <v>58.50957706380158</v>
-      </c>
       <c r="C72" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2472,28 +2532,25 @@
         <v>45681.75</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G72">
         <v>3000</v>
       </c>
       <c r="H72" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
         <v>2500</v>
       </c>
-      <c r="B73">
-        <v>61.49903390174795</v>
-      </c>
       <c r="C73" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2501,28 +2558,25 @@
         <v>45681.75</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G73">
         <v>2500</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
         <v>3000</v>
       </c>
-      <c r="B74">
-        <v>61.49903390174795</v>
-      </c>
       <c r="C74" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2530,28 +2584,25 @@
         <v>45681.75</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G74">
         <v>3000</v>
       </c>
       <c r="H74" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
         <v>2500</v>
       </c>
-      <c r="B75">
-        <v>61.49903390174795</v>
-      </c>
       <c r="C75" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2559,28 +2610,25 @@
         <v>45681.75</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G75">
         <v>2500</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
         <v>1000</v>
       </c>
-      <c r="B76">
-        <v>61.49903390174795</v>
-      </c>
       <c r="C76" s="2">
         <v>45675.33333333334</v>
       </c>
@@ -2588,19 +2636,19 @@
         <v>45681.75</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G76">
         <v>3000</v>
       </c>
       <c r="H76" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2614,19 +2662,19 @@
         <v>45683.75</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G77">
         <v>2500</v>
       </c>
       <c r="H77" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2640,19 +2688,19 @@
         <v>45683.75</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G78">
         <v>3000</v>
       </c>
       <c r="H78" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I78" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2666,19 +2714,19 @@
         <v>45683.75</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G79">
         <v>2500</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I79" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2692,19 +2740,19 @@
         <v>45683.75</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G80">
         <v>3000</v>
       </c>
       <c r="H80" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I80" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2718,19 +2766,19 @@
         <v>45683.75</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G81">
         <v>2500</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I81" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2744,19 +2792,19 @@
         <v>45683.75</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G82">
         <v>3000</v>
       </c>
       <c r="H82" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I82" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2770,19 +2818,19 @@
         <v>45683.75</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G83">
         <v>2500</v>
       </c>
       <c r="H83" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I83" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2796,19 +2844,19 @@
         <v>45683.75</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G84">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H84" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I84" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/CodeVS/data/output/barge_schedule.xlsx
+++ b/CodeVS/data/output/barge_schedule.xlsx
@@ -43,25 +43,25 @@
     <t>tugboat_sea_id</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>b7</t>
+    <t>b01</t>
+  </si>
+  <si>
+    <t>b02</t>
+  </si>
+  <si>
+    <t>b03</t>
+  </si>
+  <si>
+    <t>b04</t>
+  </si>
+  <si>
+    <t>b05</t>
+  </si>
+  <si>
+    <t>b06</t>
+  </si>
+  <si>
+    <t>b07</t>
   </si>
   <si>
     <t>b21</t>
@@ -157,10 +157,10 @@
     <t>b13</t>
   </si>
   <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>b9</t>
+    <t>b08</t>
+  </si>
+  <si>
+    <t>b09</t>
   </si>
   <si>
     <t>b10</t>
